--- a/data/outputs/activity_summarised_income_level.xlsx
+++ b/data/outputs/activity_summarised_income_level.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I41"/>
+  <dimension ref="A1:I43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -492,22 +492,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.92796</v>
+        <v>0.92791</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6309</v>
+        <v>0.631</v>
       </c>
       <c r="E2" t="n">
-        <v>0.29706</v>
+        <v>0.29691</v>
       </c>
       <c r="F2" t="n">
-        <v>88.65882999999999</v>
+        <v>88.78</v>
       </c>
       <c r="G2" t="n">
-        <v>118.713767</v>
+        <v>118.78</v>
       </c>
       <c r="H2" t="n">
-        <v>207.372597</v>
+        <v>207.56</v>
       </c>
       <c r="I2" t="n">
         <v>0.6</v>
@@ -525,22 +525,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.87414</v>
+        <v>0.87439</v>
       </c>
       <c r="D3" t="n">
-        <v>0.57336</v>
+        <v>0.57357</v>
       </c>
       <c r="E3" t="n">
-        <v>0.30078</v>
+        <v>0.30082</v>
       </c>
       <c r="F3" t="n">
-        <v>8.193975</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="G3" t="n">
-        <v>36.616645</v>
+        <v>36.63</v>
       </c>
       <c r="H3" t="n">
-        <v>44.81062</v>
+        <v>44.83</v>
       </c>
       <c r="I3" t="n">
         <v>0.8</v>
@@ -558,22 +558,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.8479</v>
+        <v>0.84799</v>
       </c>
       <c r="D4" t="n">
-        <v>0.61231</v>
+        <v>0.61233</v>
       </c>
       <c r="E4" t="n">
-        <v>0.2356</v>
+        <v>0.23565</v>
       </c>
       <c r="F4" t="n">
-        <v>203.435859</v>
+        <v>203.6</v>
       </c>
       <c r="G4" t="n">
-        <v>486.523631</v>
+        <v>486.86</v>
       </c>
       <c r="H4" t="n">
-        <v>689.95949</v>
+        <v>690.46</v>
       </c>
       <c r="I4" t="n">
         <v>0.7</v>
@@ -591,22 +591,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.84353</v>
+        <v>0.84394</v>
       </c>
       <c r="D5" t="n">
-        <v>0.37603</v>
+        <v>0.37606</v>
       </c>
       <c r="E5" t="n">
-        <v>0.4675</v>
+        <v>0.46788</v>
       </c>
       <c r="F5" t="n">
-        <v>6.591168</v>
+        <v>6.6</v>
       </c>
       <c r="G5" t="n">
-        <v>42.412923</v>
+        <v>42.44</v>
       </c>
       <c r="H5" t="n">
-        <v>49.004091</v>
+        <v>49.04</v>
       </c>
       <c r="I5" t="n">
         <v>0.9</v>
@@ -624,22 +624,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.8116</v>
+        <v>0.81173</v>
       </c>
       <c r="D6" t="n">
-        <v>0.65281</v>
+        <v>0.65279</v>
       </c>
       <c r="E6" t="n">
-        <v>0.15879</v>
+        <v>0.15894</v>
       </c>
       <c r="F6" t="n">
-        <v>48.624172408</v>
+        <v>48.6</v>
       </c>
       <c r="G6" t="n">
-        <v>82.929700431</v>
+        <v>82.86</v>
       </c>
       <c r="H6" t="n">
-        <v>131.553872839</v>
+        <v>131.46</v>
       </c>
       <c r="I6" t="n">
         <v>0.6</v>
@@ -657,22 +657,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.46922</v>
+        <v>0.46908</v>
       </c>
       <c r="D7" t="n">
-        <v>0.50548</v>
+        <v>0.50549</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.03626</v>
+        <v>-0.0364</v>
       </c>
       <c r="F7" t="n">
-        <v>9.380866801</v>
+        <v>9.380000000000001</v>
       </c>
       <c r="G7" t="n">
-        <v>46.526011129</v>
+        <v>46.49</v>
       </c>
       <c r="H7" t="n">
-        <v>55.90687792999999</v>
+        <v>55.87</v>
       </c>
       <c r="I7" t="n">
         <v>0.8</v>
@@ -690,22 +690,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.8577900000000001</v>
+        <v>0.85781</v>
       </c>
       <c r="D8" t="n">
-        <v>0.56032</v>
+        <v>0.56023</v>
       </c>
       <c r="E8" t="n">
-        <v>0.29747</v>
+        <v>0.29758</v>
       </c>
       <c r="F8" t="n">
-        <v>240.658666809</v>
+        <v>240.46</v>
       </c>
       <c r="G8" t="n">
-        <v>625.074810374</v>
+        <v>624.6</v>
       </c>
       <c r="H8" t="n">
-        <v>865.733477183</v>
+        <v>865.0600000000001</v>
       </c>
       <c r="I8" t="n">
         <v>0.7</v>
@@ -723,22 +723,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.92201</v>
+        <v>0.92236</v>
       </c>
       <c r="D9" t="n">
-        <v>0.35064</v>
+        <v>0.35045</v>
       </c>
       <c r="E9" t="n">
-        <v>0.57137</v>
+        <v>0.57191</v>
       </c>
       <c r="F9" t="n">
-        <v>12.886548712</v>
+        <v>12.88</v>
       </c>
       <c r="G9" t="n">
-        <v>32.554632771</v>
+        <v>32.53</v>
       </c>
       <c r="H9" t="n">
-        <v>45.441181483</v>
+        <v>45.41</v>
       </c>
       <c r="I9" t="n">
         <v>0.7</v>
@@ -756,22 +756,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.88724</v>
+        <v>0.88734</v>
       </c>
       <c r="D10" t="n">
-        <v>0.6999</v>
+        <v>0.69975</v>
       </c>
       <c r="E10" t="n">
-        <v>0.18734</v>
+        <v>0.18759</v>
       </c>
       <c r="F10" t="n">
-        <v>93.930004496</v>
+        <v>94</v>
       </c>
       <c r="G10" t="n">
-        <v>155.028991453</v>
+        <v>154.97</v>
       </c>
       <c r="H10" t="n">
-        <v>248.958995949</v>
+        <v>248.97</v>
       </c>
       <c r="I10" t="n">
         <v>0.6</v>
@@ -789,22 +789,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.45053</v>
+        <v>0.45057</v>
       </c>
       <c r="D11" t="n">
-        <v>0.47662</v>
+        <v>0.47648</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.02609</v>
+        <v>-0.02591</v>
       </c>
       <c r="F11" t="n">
-        <v>11.419002491</v>
+        <v>11.43</v>
       </c>
       <c r="G11" t="n">
-        <v>100.303355858</v>
+        <v>100.32</v>
       </c>
       <c r="H11" t="n">
-        <v>111.722358349</v>
+        <v>111.75</v>
       </c>
       <c r="I11" t="n">
         <v>0.9</v>
@@ -822,22 +822,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.77532</v>
+        <v>0.77534</v>
       </c>
       <c r="D12" t="n">
-        <v>0.62693</v>
+        <v>0.62699</v>
       </c>
       <c r="E12" t="n">
-        <v>0.14839</v>
+        <v>0.14835</v>
       </c>
       <c r="F12" t="n">
-        <v>183.820870157</v>
+        <v>183.83</v>
       </c>
       <c r="G12" t="n">
-        <v>661.752747953</v>
+        <v>661.96</v>
       </c>
       <c r="H12" t="n">
-        <v>845.5736181100001</v>
+        <v>845.7900000000001</v>
       </c>
       <c r="I12" t="n">
         <v>0.8</v>
@@ -855,22 +855,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.55411</v>
+        <v>0.55461</v>
       </c>
       <c r="D13" t="n">
-        <v>0.49788</v>
+        <v>0.49746</v>
       </c>
       <c r="E13" t="n">
-        <v>0.05623</v>
+        <v>0.05715</v>
       </c>
       <c r="F13" t="n">
-        <v>5.852396058</v>
+        <v>5.859999999999999</v>
       </c>
       <c r="G13" t="n">
-        <v>41.382618194</v>
+        <v>41.37</v>
       </c>
       <c r="H13" t="n">
-        <v>47.235014252</v>
+        <v>47.23</v>
       </c>
       <c r="I13" t="n">
         <v>0.9</v>
@@ -888,22 +888,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.87724</v>
+        <v>0.87719</v>
       </c>
       <c r="D14" t="n">
-        <v>0.74048</v>
+        <v>0.74053</v>
       </c>
       <c r="E14" t="n">
-        <v>0.13677</v>
+        <v>0.13666</v>
       </c>
       <c r="F14" t="n">
-        <v>48.535637161</v>
+        <v>48.61</v>
       </c>
       <c r="G14" t="n">
-        <v>61.373635648</v>
+        <v>61.51</v>
       </c>
       <c r="H14" t="n">
-        <v>109.909272809</v>
+        <v>110.12</v>
       </c>
       <c r="I14" t="n">
         <v>0.6</v>
@@ -921,22 +921,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.65227</v>
+        <v>0.65184</v>
       </c>
       <c r="D15" t="n">
-        <v>0.54316</v>
+        <v>0.54291</v>
       </c>
       <c r="E15" t="n">
-        <v>0.1091</v>
+        <v>0.10893</v>
       </c>
       <c r="F15" t="n">
-        <v>12.995726955</v>
+        <v>13.04</v>
       </c>
       <c r="G15" t="n">
-        <v>54.127702439</v>
+        <v>54.3</v>
       </c>
       <c r="H15" t="n">
-        <v>67.123429394</v>
+        <v>67.34</v>
       </c>
       <c r="I15" t="n">
         <v>0.8</v>
@@ -954,22 +954,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.83471</v>
+        <v>0.83466</v>
       </c>
       <c r="D16" t="n">
-        <v>0.62702</v>
+        <v>0.62698</v>
       </c>
       <c r="E16" t="n">
-        <v>0.20769</v>
+        <v>0.20768</v>
       </c>
       <c r="F16" t="n">
-        <v>238.148453194</v>
+        <v>238.78</v>
       </c>
       <c r="G16" t="n">
-        <v>427.137711879</v>
+        <v>428.26</v>
       </c>
       <c r="H16" t="n">
-        <v>665.286165073</v>
+        <v>667.04</v>
       </c>
       <c r="I16" t="n">
         <v>0.6</v>
@@ -987,22 +987,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.84661</v>
+        <v>0.84642</v>
       </c>
       <c r="D17" t="n">
-        <v>0.74127</v>
+        <v>0.74114</v>
       </c>
       <c r="E17" t="n">
-        <v>0.10535</v>
+        <v>0.10528</v>
       </c>
       <c r="F17" t="n">
-        <v>17.287806824</v>
+        <v>17.32</v>
       </c>
       <c r="G17" t="n">
-        <v>57.075201305</v>
+        <v>57.25</v>
       </c>
       <c r="H17" t="n">
-        <v>74.36300812900001</v>
+        <v>74.56999999999999</v>
       </c>
       <c r="I17" t="n">
         <v>0.8</v>
@@ -1020,25 +1020,25 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.5888099999999999</v>
+        <v>0.5406300000000001</v>
       </c>
       <c r="D18" t="n">
-        <v>0.21972</v>
+        <v>0.25751</v>
       </c>
       <c r="E18" t="n">
-        <v>0.36909</v>
+        <v>0.28312</v>
       </c>
       <c r="F18" t="n">
-        <v>183.274669203</v>
+        <v>93.28</v>
       </c>
       <c r="G18" t="n">
-        <v>416.348500943</v>
+        <v>148.85</v>
       </c>
       <c r="H18" t="n">
-        <v>599.623170146</v>
+        <v>242.13</v>
       </c>
       <c r="I18" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="19">
@@ -1053,22 +1053,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.54466</v>
+        <v>0.37547</v>
       </c>
       <c r="D19" t="n">
-        <v>0.23786</v>
+        <v>0.13416</v>
       </c>
       <c r="E19" t="n">
-        <v>0.3068</v>
+        <v>0.24131</v>
       </c>
       <c r="F19" t="n">
-        <v>28.801670162</v>
+        <v>32.2</v>
       </c>
       <c r="G19" t="n">
-        <v>92.233295899</v>
+        <v>104.28</v>
       </c>
       <c r="H19" t="n">
-        <v>121.034966061</v>
+        <v>136.48</v>
       </c>
       <c r="I19" t="n">
         <v>0.8</v>
@@ -1086,22 +1086,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.70629</v>
+        <v>0.61759</v>
       </c>
       <c r="D20" t="n">
-        <v>0.28212</v>
+        <v>0.22546</v>
       </c>
       <c r="E20" t="n">
-        <v>0.42417</v>
+        <v>0.39213</v>
       </c>
       <c r="F20" t="n">
-        <v>88.608898799</v>
+        <v>121.23</v>
       </c>
       <c r="G20" t="n">
-        <v>171.002076041</v>
+        <v>335.41</v>
       </c>
       <c r="H20" t="n">
-        <v>259.61097484</v>
+        <v>456.64</v>
       </c>
       <c r="I20" t="n">
         <v>0.7</v>
@@ -1119,58 +1119,58 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0.33906</v>
+        <v>0.47216</v>
       </c>
       <c r="D21" t="n">
-        <v>0.09675</v>
+        <v>0.11849</v>
       </c>
       <c r="E21" t="n">
-        <v>0.24231</v>
+        <v>0.35367</v>
       </c>
       <c r="F21" t="n">
-        <v>23.786252167</v>
+        <v>12.75</v>
       </c>
       <c r="G21" t="n">
-        <v>126.235712988</v>
+        <v>83.47</v>
       </c>
       <c r="H21" t="n">
-        <v>150.021965155</v>
+        <v>96.22</v>
       </c>
       <c r="I21" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>KSA (Saudi Arabia)</t>
+          <t>Japan</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0.8184900000000001</v>
+        <v>0.59602</v>
       </c>
       <c r="D22" t="n">
-        <v>0.48546</v>
+        <v>0.33873</v>
       </c>
       <c r="E22" t="n">
-        <v>0.33303</v>
+        <v>0.25729</v>
       </c>
       <c r="F22" t="n">
-        <v>116.164963315</v>
+        <v>76.39</v>
       </c>
       <c r="G22" t="n">
-        <v>270.082240453</v>
+        <v>82.75</v>
       </c>
       <c r="H22" t="n">
-        <v>386.247203768</v>
+        <v>159.14</v>
       </c>
       <c r="I22" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="23">
@@ -1181,29 +1181,29 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>High</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0.5774899999999999</v>
+        <v>0.84351</v>
       </c>
       <c r="D23" t="n">
-        <v>0.327</v>
+        <v>0.74608</v>
       </c>
       <c r="E23" t="n">
-        <v>0.25049</v>
+        <v>0.09743</v>
       </c>
       <c r="F23" t="n">
-        <v>6.424981520999999</v>
+        <v>27.67</v>
       </c>
       <c r="G23" t="n">
-        <v>96.87903735899999</v>
+        <v>67.03</v>
       </c>
       <c r="H23" t="n">
-        <v>103.30401888</v>
+        <v>94.7</v>
       </c>
       <c r="I23" t="n">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="24">
@@ -1214,26 +1214,26 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Middle</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0.76711</v>
+        <v>0.7834</v>
       </c>
       <c r="D24" t="n">
-        <v>0.49233</v>
+        <v>0.40277</v>
       </c>
       <c r="E24" t="n">
-        <v>0.27478</v>
+        <v>0.38063</v>
       </c>
       <c r="F24" t="n">
-        <v>190.754487666</v>
+        <v>55.17</v>
       </c>
       <c r="G24" t="n">
-        <v>594.453647987</v>
+        <v>277.48</v>
       </c>
       <c r="H24" t="n">
-        <v>785.208135653</v>
+        <v>332.65</v>
       </c>
       <c r="I24" t="n">
         <v>0.8</v>
@@ -1247,95 +1247,95 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Prefer not to answer</t>
+          <t>Middle</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0.73408</v>
+        <v>0.77053</v>
       </c>
       <c r="D25" t="n">
-        <v>0.31256</v>
+        <v>0.50692</v>
       </c>
       <c r="E25" t="n">
-        <v>0.42153</v>
+        <v>0.26361</v>
       </c>
       <c r="F25" t="n">
-        <v>2.449326825</v>
+        <v>170.26</v>
       </c>
       <c r="G25" t="n">
-        <v>31.1284366</v>
+        <v>578.04</v>
       </c>
       <c r="H25" t="n">
-        <v>33.577763425</v>
+        <v>748.3</v>
       </c>
       <c r="I25" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>New Zealand</t>
+          <t>KSA (Saudi Arabia)</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Prefer not to answer</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0.84</v>
+        <v>0.94226</v>
       </c>
       <c r="D26" t="n">
-        <v>0.54162</v>
+        <v>0.25741</v>
       </c>
       <c r="E26" t="n">
-        <v>0.29838</v>
+        <v>0.68485</v>
       </c>
       <c r="F26" t="n">
-        <v>88.31500699999999</v>
+        <v>11.43</v>
       </c>
       <c r="G26" t="n">
-        <v>100.248148</v>
+        <v>74.55</v>
       </c>
       <c r="H26" t="n">
-        <v>188.563155</v>
+        <v>85.97999999999999</v>
       </c>
       <c r="I26" t="n">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>New Zealand</t>
+          <t>KSA (Saudi Arabia)</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0.6207</v>
+        <v>0.81252</v>
       </c>
       <c r="D27" t="n">
-        <v>0.37225</v>
+        <v>0.51479</v>
       </c>
       <c r="E27" t="n">
-        <v>0.24845</v>
+        <v>0.29772</v>
       </c>
       <c r="F27" t="n">
-        <v>9.108287000000001</v>
+        <v>37.07</v>
       </c>
       <c r="G27" t="n">
-        <v>45.71193</v>
+        <v>38.19</v>
       </c>
       <c r="H27" t="n">
-        <v>54.820217</v>
+        <v>75.25999999999999</v>
       </c>
       <c r="I27" t="n">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="28">
@@ -1346,29 +1346,29 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Middle</t>
+          <t>High</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0.80446</v>
+        <v>0.8398600000000001</v>
       </c>
       <c r="D28" t="n">
-        <v>0.52732</v>
+        <v>0.5416299999999999</v>
       </c>
       <c r="E28" t="n">
-        <v>0.27713</v>
+        <v>0.29823</v>
       </c>
       <c r="F28" t="n">
-        <v>198.137375</v>
+        <v>88.36</v>
       </c>
       <c r="G28" t="n">
-        <v>368.075111</v>
+        <v>100.18</v>
       </c>
       <c r="H28" t="n">
-        <v>566.212486</v>
+        <v>188.54</v>
       </c>
       <c r="I28" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="29">
@@ -1379,95 +1379,95 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Prefer not to answer</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0.6404</v>
+        <v>0.62061</v>
       </c>
       <c r="D29" t="n">
-        <v>0.49366</v>
+        <v>0.37216</v>
       </c>
       <c r="E29" t="n">
-        <v>0.14674</v>
+        <v>0.24845</v>
       </c>
       <c r="F29" t="n">
-        <v>23.717268</v>
+        <v>9.120000000000001</v>
       </c>
       <c r="G29" t="n">
-        <v>50.416497</v>
+        <v>45.76</v>
       </c>
       <c r="H29" t="n">
-        <v>74.133765</v>
+        <v>54.88</v>
       </c>
       <c r="I29" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Singapore</t>
+          <t>New Zealand</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Middle</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0.67857</v>
+        <v>0.80446</v>
       </c>
       <c r="D30" t="n">
-        <v>0.58929</v>
+        <v>0.52726</v>
       </c>
       <c r="E30" t="n">
-        <v>0.08928999999999999</v>
+        <v>0.2772</v>
       </c>
       <c r="F30" t="n">
-        <v>56</v>
+        <v>198.22</v>
       </c>
       <c r="G30" t="n">
-        <v>56</v>
+        <v>368.15</v>
       </c>
       <c r="H30" t="n">
-        <v>112</v>
+        <v>566.37</v>
       </c>
       <c r="I30" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Singapore</t>
+          <t>New Zealand</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Prefer not to answer</t>
         </is>
       </c>
       <c r="C31" t="n">
+        <v>0.64012</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0.49356</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.14656</v>
+      </c>
+      <c r="F31" t="n">
+        <v>23.73</v>
+      </c>
+      <c r="G31" t="n">
+        <v>50.43</v>
+      </c>
+      <c r="H31" t="n">
+        <v>74.16</v>
+      </c>
+      <c r="I31" t="n">
         <v>0.7</v>
-      </c>
-      <c r="D31" t="n">
-        <v>0.3253</v>
-      </c>
-      <c r="E31" t="n">
-        <v>0.3747</v>
-      </c>
-      <c r="F31" t="n">
-        <v>20</v>
-      </c>
-      <c r="G31" t="n">
-        <v>83</v>
-      </c>
-      <c r="H31" t="n">
-        <v>103</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0.8</v>
       </c>
     </row>
     <row r="32">
@@ -1478,29 +1478,29 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Middle</t>
+          <t>High</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0.84404</v>
+        <v>0.67857</v>
       </c>
       <c r="D32" t="n">
-        <v>0.5829299999999999</v>
+        <v>0.58929</v>
       </c>
       <c r="E32" t="n">
-        <v>0.26111</v>
+        <v>0.08928999999999999</v>
       </c>
       <c r="F32" t="n">
-        <v>218</v>
+        <v>56</v>
       </c>
       <c r="G32" t="n">
-        <v>410</v>
+        <v>56</v>
       </c>
       <c r="H32" t="n">
-        <v>628</v>
+        <v>112</v>
       </c>
       <c r="I32" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="33">
@@ -1511,26 +1511,26 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Prefer not to answer</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>0.66667</v>
+        <v>0.7</v>
       </c>
       <c r="D33" t="n">
-        <v>0.45</v>
+        <v>0.3253</v>
       </c>
       <c r="E33" t="n">
-        <v>0.21667</v>
+        <v>0.3747</v>
       </c>
       <c r="F33" t="n">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="G33" t="n">
-        <v>20</v>
+        <v>83</v>
       </c>
       <c r="H33" t="n">
-        <v>26</v>
+        <v>103</v>
       </c>
       <c r="I33" t="n">
         <v>0.8</v>
@@ -1539,31 +1539,31 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Singapore</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Middle</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>0.86116</v>
+        <v>0.84404</v>
       </c>
       <c r="D34" t="n">
-        <v>0.6845</v>
+        <v>0.5829299999999999</v>
       </c>
       <c r="E34" t="n">
-        <v>0.17666</v>
+        <v>0.26111</v>
       </c>
       <c r="F34" t="n">
-        <v>44.505261741</v>
+        <v>218</v>
       </c>
       <c r="G34" t="n">
-        <v>104.154470101</v>
+        <v>410</v>
       </c>
       <c r="H34" t="n">
-        <v>148.659731842</v>
+        <v>628</v>
       </c>
       <c r="I34" t="n">
         <v>0.7</v>
@@ -1572,34 +1572,34 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Singapore</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Prefer not to answer</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>0.86883</v>
+        <v>0.66667</v>
       </c>
       <c r="D35" t="n">
-        <v>0.5334</v>
+        <v>0.45</v>
       </c>
       <c r="E35" t="n">
-        <v>0.33543</v>
+        <v>0.21667</v>
       </c>
       <c r="F35" t="n">
-        <v>12.481575311</v>
+        <v>6</v>
       </c>
       <c r="G35" t="n">
-        <v>166.568220677</v>
+        <v>20</v>
       </c>
       <c r="H35" t="n">
-        <v>179.049795988</v>
+        <v>26</v>
       </c>
       <c r="I35" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="36">
@@ -1610,29 +1610,29 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Middle</t>
+          <t>High</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>0.89366</v>
+        <v>0.86109</v>
       </c>
       <c r="D36" t="n">
-        <v>0.6710199999999999</v>
+        <v>0.68443</v>
       </c>
       <c r="E36" t="n">
-        <v>0.22265</v>
+        <v>0.17666</v>
       </c>
       <c r="F36" t="n">
-        <v>241.117670179</v>
+        <v>44.49</v>
       </c>
       <c r="G36" t="n">
-        <v>774.447109795</v>
+        <v>104.16</v>
       </c>
       <c r="H36" t="n">
-        <v>1015.564779974</v>
+        <v>148.65</v>
       </c>
       <c r="I36" t="n">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="37">
@@ -1643,59 +1643,59 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Prefer not to answer</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>0.94985</v>
+        <v>0.86869</v>
       </c>
       <c r="D37" t="n">
-        <v>0.4806</v>
+        <v>0.53345</v>
       </c>
       <c r="E37" t="n">
-        <v>0.46925</v>
+        <v>0.33525</v>
       </c>
       <c r="F37" t="n">
-        <v>12.303339115</v>
+        <v>12.49</v>
       </c>
       <c r="G37" t="n">
-        <v>63.251578886</v>
+        <v>166.52</v>
       </c>
       <c r="H37" t="n">
-        <v>75.554918001</v>
+        <v>179.01</v>
       </c>
       <c r="I37" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>USA (United States of America)</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Middle</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>0.92989</v>
+        <v>0.89361</v>
       </c>
       <c r="D38" t="n">
-        <v>0.70029</v>
+        <v>0.67101</v>
       </c>
       <c r="E38" t="n">
-        <v>0.2296</v>
+        <v>0.2226</v>
       </c>
       <c r="F38" t="n">
-        <v>29.249297</v>
+        <v>241.09</v>
       </c>
       <c r="G38" t="n">
-        <v>91.42311099999999</v>
+        <v>774.34</v>
       </c>
       <c r="H38" t="n">
-        <v>120.672408</v>
+        <v>1015.43</v>
       </c>
       <c r="I38" t="n">
         <v>0.8</v>
@@ -1704,34 +1704,34 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>USA (United States of America)</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Prefer not to answer</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>0.72946</v>
+        <v>0.94963</v>
       </c>
       <c r="D39" t="n">
-        <v>0.44735</v>
+        <v>0.48064</v>
       </c>
       <c r="E39" t="n">
-        <v>0.28211</v>
+        <v>0.469</v>
       </c>
       <c r="F39" t="n">
-        <v>11.816337</v>
+        <v>12.31</v>
       </c>
       <c r="G39" t="n">
-        <v>164.366007</v>
+        <v>63.27</v>
       </c>
       <c r="H39" t="n">
-        <v>176.182344</v>
+        <v>75.58</v>
       </c>
       <c r="I39" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="40">
@@ -1742,26 +1742,26 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Middle</t>
+          <t>High</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>0.8757</v>
+        <v>0.92989</v>
       </c>
       <c r="D40" t="n">
-        <v>0.61448</v>
+        <v>0.70031</v>
       </c>
       <c r="E40" t="n">
-        <v>0.26122</v>
+        <v>0.22958</v>
       </c>
       <c r="F40" t="n">
-        <v>205.533585</v>
+        <v>29.24</v>
       </c>
       <c r="G40" t="n">
-        <v>983.9596759999999</v>
+        <v>91.45999999999999</v>
       </c>
       <c r="H40" t="n">
-        <v>1189.493261</v>
+        <v>120.7</v>
       </c>
       <c r="I40" t="n">
         <v>0.8</v>
@@ -1775,28 +1775,94 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>0.72927</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0.44737</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0.2819</v>
+      </c>
+      <c r="F41" t="n">
+        <v>11.82</v>
+      </c>
+      <c r="G41" t="n">
+        <v>164.45</v>
+      </c>
+      <c r="H41" t="n">
+        <v>176.27</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>USA (United States of America)</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Middle</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>0.8756</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0.61454</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0.26106</v>
+      </c>
+      <c r="F42" t="n">
+        <v>205.62</v>
+      </c>
+      <c r="G42" t="n">
+        <v>984.4299999999999</v>
+      </c>
+      <c r="H42" t="n">
+        <v>1190.05</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>USA (United States of America)</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
           <t>Prefer not to answer</t>
         </is>
       </c>
-      <c r="C41" t="n">
-        <v>0.95612</v>
-      </c>
-      <c r="D41" t="n">
-        <v>0.44116</v>
-      </c>
-      <c r="E41" t="n">
-        <v>0.51496</v>
-      </c>
-      <c r="F41" t="n">
-        <v>5.622156</v>
-      </c>
-      <c r="G41" t="n">
-        <v>60.515361</v>
-      </c>
-      <c r="H41" t="n">
-        <v>66.137517</v>
-      </c>
-      <c r="I41" t="n">
+      <c r="C43" t="n">
+        <v>0.9556</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0.44112</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0.51447</v>
+      </c>
+      <c r="F43" t="n">
+        <v>5.63</v>
+      </c>
+      <c r="G43" t="n">
+        <v>60.55</v>
+      </c>
+      <c r="H43" t="n">
+        <v>66.17999999999999</v>
+      </c>
+      <c r="I43" t="n">
         <v>0.9</v>
       </c>
     </row>
